--- a/Ratings/Data.xlsx
+++ b/Ratings/Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bredeespelid/Desktop/Accounting/Ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{624E0AE9-CF9B-0041-B98B-5B1780BB0FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C3A00F-E082-6E4A-8732-79987D2B183F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" activeTab="1" xr2:uid="{DA42886E-5822-F346-A629-910EC0E4B336}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16800" xr2:uid="{DA42886E-5822-F346-A629-910EC0E4B336}"/>
   </bookViews>
   <sheets>
-    <sheet name="validerte_formler_med_forklarin" sheetId="1" r:id="rId1"/>
+    <sheet name="Formler" sheetId="1" r:id="rId1"/>
     <sheet name="Matrise" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0835ABE9-C506-BE49-B93C-1C96E4013B44}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1404,9 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296E1EE8-1515-AF46-8378-9DC2CCEC62F7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
